--- a/out.xlsx
+++ b/out.xlsx
@@ -330,8 +330,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -380,7 +380,7 @@
           <t>Код ЕДРПОУ</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>виконання</t>
         </is>
@@ -470,9 +470,6 @@
       <c r="G12" t="n">
         <v>12546874</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
@@ -521,9 +518,6 @@
       <c r="G13" t="n">
         <v>12469753</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
@@ -570,9 +564,6 @@
       <c r="G14" t="n">
         <v>43671244</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
@@ -616,11 +607,8 @@
       <c r="G15" t="n">
         <v>25669435</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
       </c>
       <c r="J15">
         <f>J15+K15</f>
@@ -657,11 +645,8 @@
       <c r="G16" t="n">
         <v>11234458</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
       </c>
       <c r="J16">
         <f>J16+K16</f>
@@ -703,11 +688,8 @@
       <c r="G17" t="n">
         <v>36475412</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
       </c>
       <c r="J17">
         <f>J17+K17</f>
@@ -749,11 +731,8 @@
       <c r="G18" t="n">
         <v>12469856</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
       </c>
       <c r="J18">
         <f>J18+K18</f>
@@ -790,11 +769,8 @@
       <c r="G19" t="n">
         <v>13475141</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
       </c>
       <c r="J19">
         <f>J19+K19</f>
@@ -831,11 +807,8 @@
       <c r="G20" t="n">
         <v>22564475</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
       </c>
       <c r="J20">
         <f>J20+K20</f>
@@ -872,7 +845,7 @@
       <c r="G21" t="n">
         <v>12336594</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21">
@@ -910,7 +883,7 @@
       <c r="G22" t="n">
         <v>12445684</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22">

--- a/out.xlsx
+++ b/out.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="1368" yWindow="696"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="7476" yWindow="1164"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
@@ -25,12 +26,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -53,6 +84,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -328,18 +368,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="4" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="8" width="10"/>
+    <col customWidth="1" max="9" min="9" style="8" width="8.88671875"/>
   </cols>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
@@ -355,57 +395,61 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Номер</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>Область</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>Насел. Пункт</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>Договора</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>Код ЕДРПОУ</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>виконання</t>
         </is>
       </c>
+      <c r="I4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="J5" s="3" t="inlineStr">
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="inlineStr">
         <is>
           <t>План</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>Договор</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>Реструктур</t>
         </is>
       </c>
+      <c r="I6" s="7" t="n"/>
     </row>
     <row r="7">
+      <c r="I7" s="7" t="n"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>По всем</t>
@@ -422,17 +466,15 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9"/>
     <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Винницкая</t>
         </is>
@@ -470,11 +512,15 @@
       <c r="G12" t="n">
         <v>12546874</v>
       </c>
-      <c r="I12" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
+      <c r="I12">
+        <f>5+J12</f>
+        <v/>
+      </c>
       <c r="J12">
-        <f>J12+K12</f>
+        <f>SUM(K12:L12)</f>
         <v/>
       </c>
       <c r="K12">
@@ -518,11 +564,15 @@
       <c r="G13" t="n">
         <v>12469753</v>
       </c>
-      <c r="I13" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
+      <c r="I13">
+        <f>5+J13</f>
+        <v/>
+      </c>
       <c r="J13">
-        <f>J13+K13</f>
+        <f>SUM(K13:L13)</f>
         <v/>
       </c>
       <c r="K13">
@@ -564,11 +614,15 @@
       <c r="G14" t="n">
         <v>43671244</v>
       </c>
-      <c r="I14" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
+      <c r="I14">
+        <f>5+J14</f>
+        <v/>
+      </c>
       <c r="J14">
-        <f>J14+K14</f>
+        <f>SUM(K14:L14)</f>
         <v/>
       </c>
       <c r="K14">
@@ -607,11 +661,15 @@
       <c r="G15" t="n">
         <v>25669435</v>
       </c>
-      <c r="I15" t="n">
+      <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15">
+        <f>5+J15</f>
+        <v/>
+      </c>
       <c r="J15">
-        <f>J15+K15</f>
+        <f>SUM(K15:L15)</f>
         <v/>
       </c>
       <c r="K15">
@@ -645,11 +703,15 @@
       <c r="G16" t="n">
         <v>11234458</v>
       </c>
-      <c r="I16" t="n">
+      <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16">
+        <f>5+J16</f>
+        <v/>
+      </c>
       <c r="J16">
-        <f>J16+K16</f>
+        <f>SUM(K16:L16)</f>
         <v/>
       </c>
       <c r="K16">
@@ -688,11 +750,15 @@
       <c r="G17" t="n">
         <v>36475412</v>
       </c>
-      <c r="I17" t="n">
+      <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17">
+        <f>5+J17</f>
+        <v/>
+      </c>
       <c r="J17">
-        <f>J17+K17</f>
+        <f>SUM(K17:L17)</f>
         <v/>
       </c>
       <c r="K17">
@@ -731,11 +797,15 @@
       <c r="G18" t="n">
         <v>12469856</v>
       </c>
-      <c r="I18" t="n">
+      <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18">
+        <f>5+J18</f>
+        <v/>
+      </c>
       <c r="J18">
-        <f>J18+K18</f>
+        <f>SUM(K18:L18)</f>
         <v/>
       </c>
       <c r="K18">
@@ -769,11 +839,15 @@
       <c r="G19" t="n">
         <v>13475141</v>
       </c>
-      <c r="I19" t="n">
+      <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19">
+        <f>5+J19</f>
+        <v/>
+      </c>
       <c r="J19">
-        <f>J19+K19</f>
+        <f>SUM(K19:L19)</f>
         <v/>
       </c>
       <c r="K19">
@@ -807,11 +881,15 @@
       <c r="G20" t="n">
         <v>22564475</v>
       </c>
-      <c r="I20" t="n">
+      <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20">
+        <f>5+J20</f>
+        <v/>
+      </c>
       <c r="J20">
-        <f>J20+K20</f>
+        <f>SUM(K20:L20)</f>
         <v/>
       </c>
       <c r="K20">
@@ -845,11 +923,15 @@
       <c r="G21" t="n">
         <v>12336594</v>
       </c>
-      <c r="I21" t="n">
+      <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21">
+        <f>5+J21</f>
+        <v/>
+      </c>
       <c r="J21">
-        <f>J21+K21</f>
+        <f>SUM(K21:L21)</f>
         <v/>
       </c>
       <c r="K21">
@@ -883,11 +965,15 @@
       <c r="G22" t="n">
         <v>12445684</v>
       </c>
-      <c r="I22" t="n">
+      <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22">
+        <f>5+J22</f>
+        <v/>
+      </c>
       <c r="J22">
-        <f>J22+K22</f>
+        <f>SUM(K22:L22)</f>
         <v/>
       </c>
       <c r="K22">
@@ -902,7 +988,7 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="J5:L6"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
@@ -915,4 +1001,139 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="6" t="n"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="9" t="n"/>
+      <c r="I7" s="6" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="5" t="n"/>
+      <c r="L9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="6" t="n"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="5" t="n"/>
+      <c r="L10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
+      <c r="I11" s="6" t="n"/>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="5" t="n"/>
+      <c r="L11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="G12" s="9" t="n"/>
+      <c r="H12" s="9" t="n"/>
+      <c r="I12" s="6" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+      <c r="L12" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="G14" s="9" t="n"/>
+      <c r="H14" s="10" t="n"/>
+      <c r="I14" s="9" t="n"/>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="5" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="G15" s="9" t="n"/>
+      <c r="H15" s="10" t="n"/>
+      <c r="I15" s="9" t="n"/>
+      <c r="J15" s="11" t="n"/>
+      <c r="K15" s="5" t="n"/>
+      <c r="L15" s="5" t="n"/>
+      <c r="M15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="G16" s="9" t="n"/>
+      <c r="H16" s="10" t="n"/>
+      <c r="I16" s="9" t="n"/>
+      <c r="J16" s="11" t="n"/>
+      <c r="K16" s="5" t="n"/>
+      <c r="L16" s="5" t="n"/>
+      <c r="M16" s="5" t="n"/>
+    </row>
+    <row r="17">
+      <c r="G17" s="9" t="n"/>
+      <c r="H17" s="10" t="n"/>
+      <c r="I17" s="9" t="n"/>
+      <c r="J17" s="11" t="n"/>
+      <c r="K17" s="5" t="n"/>
+      <c r="L17" s="5" t="n"/>
+      <c r="M17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="G18" s="9" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="9" t="n"/>
+      <c r="J18" s="11" t="n"/>
+      <c r="K18" s="5" t="n"/>
+      <c r="L18" s="5" t="n"/>
+      <c r="M18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="G19" s="9" t="n"/>
+      <c r="H19" s="10" t="n"/>
+      <c r="I19" s="9" t="n"/>
+      <c r="J19" s="11" t="n"/>
+      <c r="K19" s="5" t="n"/>
+      <c r="L19" s="5" t="n"/>
+      <c r="M19" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/out.xlsx
+++ b/out.xlsx
@@ -371,7 +371,7 @@
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -519,15 +519,15 @@
         <f>5+J12</f>
         <v/>
       </c>
-      <c r="J12">
-        <f>SUM(K12:L12)</f>
-        <v/>
-      </c>
       <c r="K12">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L12:M12)</f>
         <v/>
       </c>
       <c r="L12">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M12">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -571,15 +571,15 @@
         <f>5+J13</f>
         <v/>
       </c>
-      <c r="J13">
-        <f>SUM(K13:L13)</f>
-        <v/>
-      </c>
       <c r="K13">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L13:M13)</f>
         <v/>
       </c>
       <c r="L13">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M13">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -621,15 +621,15 @@
         <f>5+J14</f>
         <v/>
       </c>
-      <c r="J14">
-        <f>SUM(K14:L14)</f>
-        <v/>
-      </c>
       <c r="K14">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L14:M14)</f>
         <v/>
       </c>
       <c r="L14">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M14">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -668,15 +668,15 @@
         <f>5+J15</f>
         <v/>
       </c>
-      <c r="J15">
-        <f>SUM(K15:L15)</f>
-        <v/>
-      </c>
       <c r="K15">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L15:M15)</f>
         <v/>
       </c>
       <c r="L15">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M15">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -710,15 +710,15 @@
         <f>5+J16</f>
         <v/>
       </c>
-      <c r="J16">
-        <f>SUM(K16:L16)</f>
-        <v/>
-      </c>
       <c r="K16">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L16:M16)</f>
         <v/>
       </c>
       <c r="L16">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M16">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -757,15 +757,15 @@
         <f>5+J17</f>
         <v/>
       </c>
-      <c r="J17">
-        <f>SUM(K17:L17)</f>
-        <v/>
-      </c>
       <c r="K17">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L17:M17)</f>
         <v/>
       </c>
       <c r="L17">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M17">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -804,15 +804,15 @@
         <f>5+J18</f>
         <v/>
       </c>
-      <c r="J18">
-        <f>SUM(K18:L18)</f>
-        <v/>
-      </c>
       <c r="K18">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L18:M18)</f>
         <v/>
       </c>
       <c r="L18">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M18">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -846,15 +846,15 @@
         <f>5+J19</f>
         <v/>
       </c>
-      <c r="J19">
-        <f>SUM(K19:L19)</f>
-        <v/>
-      </c>
       <c r="K19">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L19:M19)</f>
         <v/>
       </c>
       <c r="L19">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M19">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -888,15 +888,15 @@
         <f>5+J20</f>
         <v/>
       </c>
-      <c r="J20">
-        <f>SUM(K20:L20)</f>
-        <v/>
-      </c>
       <c r="K20">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L20:M20)</f>
         <v/>
       </c>
       <c r="L20">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M20">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -930,15 +930,15 @@
         <f>5+J21</f>
         <v/>
       </c>
-      <c r="J21">
-        <f>SUM(K21:L21)</f>
-        <v/>
-      </c>
       <c r="K21">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L21:M21)</f>
         <v/>
       </c>
       <c r="L21">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M21">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -972,15 +972,15 @@
         <f>5+J22</f>
         <v/>
       </c>
-      <c r="J22">
-        <f>SUM(K22:L22)</f>
-        <v/>
-      </c>
       <c r="K22">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(L22:M22)</f>
         <v/>
       </c>
       <c r="L22">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="M22">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>

--- a/out.xlsx
+++ b/out.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="7476" yWindow="1164"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5760" yWindow="1164"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -86,13 +86,13 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -368,18 +368,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:M22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="8" width="10"/>
-    <col customWidth="1" max="9" min="9" style="8" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="10"/>
+    <col customWidth="1" max="9" min="9" style="11" width="8.88671875"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
@@ -395,61 +396,61 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>Номер</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="10" t="inlineStr">
         <is>
           <t>Область</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>Насел. Пункт</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="10" t="inlineStr">
         <is>
           <t>Договора</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
         <is>
           <t>Код ЕДРПОУ</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="H4" s="10" t="inlineStr">
         <is>
           <t>виконання</t>
         </is>
       </c>
-      <c r="I4" s="7" t="n"/>
+      <c r="I4" s="10" t="n"/>
     </row>
     <row r="5">
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="I5" s="10" t="n"/>
+      <c r="J5" s="10" t="inlineStr">
         <is>
           <t>План</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="7" t="inlineStr">
+      <c r="E6" s="10" t="inlineStr">
         <is>
           <t>Договор</t>
         </is>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="10" t="inlineStr">
         <is>
           <t>Реструктур</t>
         </is>
       </c>
-      <c r="I6" s="7" t="n"/>
+      <c r="I6" s="10" t="n"/>
     </row>
     <row r="7">
-      <c r="I7" s="7" t="n"/>
+      <c r="I7" s="10" t="n"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>По всем</t>
@@ -466,15 +467,17 @@
         </is>
       </c>
     </row>
+    <row r="8"/>
+    <row r="9"/>
     <row r="10">
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>Винницкая</t>
         </is>
@@ -516,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f>5+J12</f>
+        <f>5+K12</f>
         <v/>
       </c>
       <c r="K12">
@@ -568,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <f>5+J13</f>
+        <f>5+K13</f>
         <v/>
       </c>
       <c r="K13">
@@ -618,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f>5+J14</f>
+        <f>5+K14</f>
         <v/>
       </c>
       <c r="K14">
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f>5+J15</f>
+        <f>5+K15</f>
         <v/>
       </c>
       <c r="K15">
@@ -707,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f>5+J16</f>
+        <f>5+K16</f>
         <v/>
       </c>
       <c r="K16">
@@ -754,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>5+J17</f>
+        <f>5+K17</f>
         <v/>
       </c>
       <c r="K17">
@@ -801,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f>5+J18</f>
+        <f>5+K18</f>
         <v/>
       </c>
       <c r="K18">
@@ -843,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f>5+J19</f>
+        <f>5+K19</f>
         <v/>
       </c>
       <c r="K19">
@@ -885,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>5+J20</f>
+        <f>5+K20</f>
         <v/>
       </c>
       <c r="K20">
@@ -927,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f>5+J21</f>
+        <f>5+K21</f>
         <v/>
       </c>
       <c r="K21">
@@ -969,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f>5+J22</f>
+        <f>5+K22</f>
         <v/>
       </c>
       <c r="K22">
@@ -1032,103 +1035,103 @@
       <c r="G3" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="9" t="n"/>
+      <c r="G7" s="7" t="n"/>
+      <c r="H7" s="7" t="n"/>
       <c r="I7" s="6" t="n"/>
       <c r="J7" s="5" t="n"/>
       <c r="K7" s="5" t="n"/>
       <c r="L7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="9" t="n"/>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="7" t="n"/>
       <c r="I8" s="6" t="n"/>
       <c r="J8" s="5" t="n"/>
       <c r="K8" s="5" t="n"/>
       <c r="L8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="9" t="n"/>
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="7" t="n"/>
       <c r="I9" s="6" t="n"/>
       <c r="J9" s="5" t="n"/>
       <c r="K9" s="5" t="n"/>
       <c r="L9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="9" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="7" t="n"/>
       <c r="I10" s="6" t="n"/>
       <c r="J10" s="5" t="n"/>
       <c r="K10" s="5" t="n"/>
       <c r="L10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="9" t="n"/>
+      <c r="G11" s="7" t="n"/>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="6" t="n"/>
       <c r="J11" s="5" t="n"/>
       <c r="K11" s="5" t="n"/>
       <c r="L11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="G12" s="9" t="n"/>
-      <c r="H12" s="9" t="n"/>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
       <c r="I12" s="6" t="n"/>
       <c r="J12" s="5" t="n"/>
       <c r="K12" s="5" t="n"/>
       <c r="L12" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="G14" s="9" t="n"/>
-      <c r="H14" s="10" t="n"/>
-      <c r="I14" s="9" t="n"/>
-      <c r="J14" s="11" t="n"/>
+      <c r="G14" s="7" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="7" t="n"/>
+      <c r="J14" s="9" t="n"/>
       <c r="K14" s="5" t="n"/>
       <c r="L14" s="5" t="n"/>
       <c r="M14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="G15" s="9" t="n"/>
-      <c r="H15" s="10" t="n"/>
-      <c r="I15" s="9" t="n"/>
-      <c r="J15" s="11" t="n"/>
+      <c r="G15" s="7" t="n"/>
+      <c r="H15" s="8" t="n"/>
+      <c r="I15" s="7" t="n"/>
+      <c r="J15" s="9" t="n"/>
       <c r="K15" s="5" t="n"/>
       <c r="L15" s="5" t="n"/>
       <c r="M15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="G16" s="9" t="n"/>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="9" t="n"/>
-      <c r="J16" s="11" t="n"/>
+      <c r="G16" s="7" t="n"/>
+      <c r="H16" s="8" t="n"/>
+      <c r="I16" s="7" t="n"/>
+      <c r="J16" s="9" t="n"/>
       <c r="K16" s="5" t="n"/>
       <c r="L16" s="5" t="n"/>
       <c r="M16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="G17" s="9" t="n"/>
-      <c r="H17" s="10" t="n"/>
-      <c r="I17" s="9" t="n"/>
-      <c r="J17" s="11" t="n"/>
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="8" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="9" t="n"/>
       <c r="K17" s="5" t="n"/>
       <c r="L17" s="5" t="n"/>
       <c r="M17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="G18" s="9" t="n"/>
-      <c r="H18" s="10" t="n"/>
-      <c r="I18" s="9" t="n"/>
-      <c r="J18" s="11" t="n"/>
+      <c r="G18" s="7" t="n"/>
+      <c r="H18" s="8" t="n"/>
+      <c r="I18" s="7" t="n"/>
+      <c r="J18" s="9" t="n"/>
       <c r="K18" s="5" t="n"/>
       <c r="L18" s="5" t="n"/>
       <c r="M18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="G19" s="9" t="n"/>
-      <c r="H19" s="10" t="n"/>
-      <c r="I19" s="9" t="n"/>
-      <c r="J19" s="11" t="n"/>
+      <c r="G19" s="7" t="n"/>
+      <c r="H19" s="8" t="n"/>
+      <c r="I19" s="7" t="n"/>
+      <c r="J19" s="9" t="n"/>
       <c r="K19" s="5" t="n"/>
       <c r="L19" s="5" t="n"/>
       <c r="M19" s="5" t="n"/>

--- a/out.xlsx
+++ b/out.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5760" yWindow="1164"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5820" yWindow="1080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -86,6 +86,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -93,6 +97,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -368,16 +373,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="10"/>
-    <col customWidth="1" max="9" min="9" style="11" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="13" width="10"/>
+    <col customWidth="1" max="9" min="9" style="13" width="8.88671875"/>
+    <col customWidth="1" max="10" min="10" style="13" width="8.88671875"/>
+    <col customWidth="1" max="11" min="11" style="13" width="9"/>
+    <col customWidth="1" max="12" min="12" style="13" width="9"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -396,72 +404,76 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>Номер</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="12" t="inlineStr">
         <is>
           <t>Область</t>
         </is>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>Насел. Пункт</t>
         </is>
       </c>
-      <c r="E4" s="10" t="inlineStr">
+      <c r="E4" s="12" t="inlineStr">
         <is>
           <t>Договора</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
+      <c r="G4" s="12" t="inlineStr">
         <is>
           <t>Код ЕДРПОУ</t>
         </is>
       </c>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H4" s="12" t="inlineStr">
         <is>
           <t>виконання</t>
         </is>
       </c>
-      <c r="I4" s="10" t="n"/>
+      <c r="I4" s="12" t="n"/>
+      <c r="J4" s="12" t="n"/>
     </row>
     <row r="5">
-      <c r="I5" s="10" t="n"/>
-      <c r="J5" s="10" t="inlineStr">
+      <c r="I5" s="12" t="n"/>
+      <c r="J5" s="12" t="n"/>
+      <c r="K5" s="12" t="inlineStr">
         <is>
           <t>План</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="10" t="inlineStr">
+      <c r="E6" s="12" t="inlineStr">
         <is>
           <t>Договор</t>
         </is>
       </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>Реструктур</t>
         </is>
       </c>
-      <c r="I6" s="10" t="n"/>
+      <c r="I6" s="12" t="n"/>
+      <c r="J6" s="12" t="n"/>
     </row>
     <row r="7">
-      <c r="I7" s="10" t="n"/>
-      <c r="J7" t="inlineStr">
+      <c r="I7" s="12" t="n"/>
+      <c r="J7" s="12" t="n"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>По всем</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>ТЕ</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>БО</t>
         </is>
@@ -470,14 +482,42 @@
     <row r="8"/>
     <row r="9"/>
     <row r="10">
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
+      <c r="I10" s="14">
+        <f>KMN</f>
+        <v/>
+      </c>
+      <c r="J10">
+        <f>MN</f>
+        <v/>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>M:N</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>rand</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>rand</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>Винницкая</t>
         </is>
@@ -519,18 +559,26 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <f>5+K12</f>
-        <v/>
-      </c>
-      <c r="K12">
-        <f>SUM(L12:M12)</f>
+        <f>L12+N12+O12</f>
+        <v/>
+      </c>
+      <c r="J12">
+        <f>N12+O12</f>
         <v/>
       </c>
       <c r="L12">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N12:O12)</f>
         <v/>
       </c>
       <c r="M12">
+        <f>N12+O12</f>
+        <v/>
+      </c>
+      <c r="N12">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O12">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -571,18 +619,26 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <f>5+K13</f>
-        <v/>
-      </c>
-      <c r="K13">
-        <f>SUM(L13:M13)</f>
+        <f>L13+N13+O13</f>
+        <v/>
+      </c>
+      <c r="J13">
+        <f>N13+O13</f>
         <v/>
       </c>
       <c r="L13">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N13:O13)</f>
         <v/>
       </c>
       <c r="M13">
+        <f>N13+O13</f>
+        <v/>
+      </c>
+      <c r="N13">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O13">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -621,18 +677,26 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <f>5+K14</f>
-        <v/>
-      </c>
-      <c r="K14">
-        <f>SUM(L14:M14)</f>
+        <f>L14+N14+O14</f>
+        <v/>
+      </c>
+      <c r="J14">
+        <f>N14+O14</f>
         <v/>
       </c>
       <c r="L14">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N14:O14)</f>
         <v/>
       </c>
       <c r="M14">
+        <f>N14+O14</f>
+        <v/>
+      </c>
+      <c r="N14">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O14">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -668,18 +732,26 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f>5+K15</f>
-        <v/>
-      </c>
-      <c r="K15">
-        <f>SUM(L15:M15)</f>
+        <f>L15+N15+O15</f>
+        <v/>
+      </c>
+      <c r="J15">
+        <f>N15+O15</f>
         <v/>
       </c>
       <c r="L15">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N15:O15)</f>
         <v/>
       </c>
       <c r="M15">
+        <f>N15+O15</f>
+        <v/>
+      </c>
+      <c r="N15">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O15">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -710,18 +782,26 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f>5+K16</f>
-        <v/>
-      </c>
-      <c r="K16">
-        <f>SUM(L16:M16)</f>
+        <f>L16+N16+O16</f>
+        <v/>
+      </c>
+      <c r="J16">
+        <f>N16+O16</f>
         <v/>
       </c>
       <c r="L16">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N16:O16)</f>
         <v/>
       </c>
       <c r="M16">
+        <f>N16+O16</f>
+        <v/>
+      </c>
+      <c r="N16">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O16">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -757,18 +837,26 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>5+K17</f>
-        <v/>
-      </c>
-      <c r="K17">
-        <f>SUM(L17:M17)</f>
+        <f>L17+N17+O17</f>
+        <v/>
+      </c>
+      <c r="J17">
+        <f>N17+O17</f>
         <v/>
       </c>
       <c r="L17">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N17:O17)</f>
         <v/>
       </c>
       <c r="M17">
+        <f>N17+O17</f>
+        <v/>
+      </c>
+      <c r="N17">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O17">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -804,18 +892,26 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f>5+K18</f>
-        <v/>
-      </c>
-      <c r="K18">
-        <f>SUM(L18:M18)</f>
+        <f>L18+N18+O18</f>
+        <v/>
+      </c>
+      <c r="J18">
+        <f>N18+O18</f>
         <v/>
       </c>
       <c r="L18">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N18:O18)</f>
         <v/>
       </c>
       <c r="M18">
+        <f>N18+O18</f>
+        <v/>
+      </c>
+      <c r="N18">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O18">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -846,18 +942,26 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f>5+K19</f>
-        <v/>
-      </c>
-      <c r="K19">
-        <f>SUM(L19:M19)</f>
+        <f>L19+N19+O19</f>
+        <v/>
+      </c>
+      <c r="J19">
+        <f>N19+O19</f>
         <v/>
       </c>
       <c r="L19">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N19:O19)</f>
         <v/>
       </c>
       <c r="M19">
+        <f>N19+O19</f>
+        <v/>
+      </c>
+      <c r="N19">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O19">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -888,18 +992,26 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>5+K20</f>
-        <v/>
-      </c>
-      <c r="K20">
-        <f>SUM(L20:M20)</f>
+        <f>L20+N20+O20</f>
+        <v/>
+      </c>
+      <c r="J20">
+        <f>N20+O20</f>
         <v/>
       </c>
       <c r="L20">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N20:O20)</f>
         <v/>
       </c>
       <c r="M20">
+        <f>N20+O20</f>
+        <v/>
+      </c>
+      <c r="N20">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O20">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -930,18 +1042,26 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f>5+K21</f>
-        <v/>
-      </c>
-      <c r="K21">
-        <f>SUM(L21:M21)</f>
+        <f>L21+N21+O21</f>
+        <v/>
+      </c>
+      <c r="J21">
+        <f>N21+O21</f>
         <v/>
       </c>
       <c r="L21">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N21:O21)</f>
         <v/>
       </c>
       <c r="M21">
+        <f>N21+O21</f>
+        <v/>
+      </c>
+      <c r="N21">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O21">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -972,18 +1092,26 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f>5+K22</f>
-        <v/>
-      </c>
-      <c r="K22">
-        <f>SUM(L22:M22)</f>
+        <f>L22+N22+O22</f>
+        <v/>
+      </c>
+      <c r="J22">
+        <f>N22+O22</f>
         <v/>
       </c>
       <c r="L22">
-        <f>RANDBETWEEN(1, 100)</f>
+        <f>SUM(N22:O22)</f>
         <v/>
       </c>
       <c r="M22">
+        <f>N22+O22</f>
+        <v/>
+      </c>
+      <c r="N22">
+        <f>RANDBETWEEN(1, 100)</f>
+        <v/>
+      </c>
+      <c r="O22">
         <f>RANDBETWEEN(1, 100)</f>
         <v/>
       </c>
@@ -991,7 +1119,7 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="H4:H7"/>
-    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="K5:N6"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
@@ -1035,103 +1163,103 @@
       <c r="G3" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="7" t="n"/>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="9" t="n"/>
       <c r="I7" s="6" t="n"/>
       <c r="J7" s="5" t="n"/>
       <c r="K7" s="5" t="n"/>
       <c r="L7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
+      <c r="G8" s="9" t="n"/>
+      <c r="H8" s="9" t="n"/>
       <c r="I8" s="6" t="n"/>
       <c r="J8" s="5" t="n"/>
       <c r="K8" s="5" t="n"/>
       <c r="L8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="9" t="n"/>
       <c r="I9" s="6" t="n"/>
       <c r="J9" s="5" t="n"/>
       <c r="K9" s="5" t="n"/>
       <c r="L9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="9" t="n"/>
       <c r="I10" s="6" t="n"/>
       <c r="J10" s="5" t="n"/>
       <c r="K10" s="5" t="n"/>
       <c r="L10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="9" t="n"/>
       <c r="I11" s="6" t="n"/>
       <c r="J11" s="5" t="n"/>
       <c r="K11" s="5" t="n"/>
       <c r="L11" s="5" t="n"/>
     </row>
     <row r="12">
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="7" t="n"/>
+      <c r="G12" s="9" t="n"/>
+      <c r="H12" s="9" t="n"/>
       <c r="I12" s="6" t="n"/>
       <c r="J12" s="5" t="n"/>
       <c r="K12" s="5" t="n"/>
       <c r="L12" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="9" t="n"/>
+      <c r="G14" s="9" t="n"/>
+      <c r="H14" s="10" t="n"/>
+      <c r="I14" s="9" t="n"/>
+      <c r="J14" s="11" t="n"/>
       <c r="K14" s="5" t="n"/>
       <c r="L14" s="5" t="n"/>
       <c r="M14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="8" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="9" t="n"/>
+      <c r="G15" s="9" t="n"/>
+      <c r="H15" s="10" t="n"/>
+      <c r="I15" s="9" t="n"/>
+      <c r="J15" s="11" t="n"/>
       <c r="K15" s="5" t="n"/>
       <c r="L15" s="5" t="n"/>
       <c r="M15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="8" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+      <c r="H16" s="10" t="n"/>
+      <c r="I16" s="9" t="n"/>
+      <c r="J16" s="11" t="n"/>
       <c r="K16" s="5" t="n"/>
       <c r="L16" s="5" t="n"/>
       <c r="M16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="G17" s="7" t="n"/>
-      <c r="H17" s="8" t="n"/>
-      <c r="I17" s="7" t="n"/>
-      <c r="J17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+      <c r="H17" s="10" t="n"/>
+      <c r="I17" s="9" t="n"/>
+      <c r="J17" s="11" t="n"/>
       <c r="K17" s="5" t="n"/>
       <c r="L17" s="5" t="n"/>
       <c r="M17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="G18" s="7" t="n"/>
-      <c r="H18" s="8" t="n"/>
-      <c r="I18" s="7" t="n"/>
-      <c r="J18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="9" t="n"/>
+      <c r="J18" s="11" t="n"/>
       <c r="K18" s="5" t="n"/>
       <c r="L18" s="5" t="n"/>
       <c r="M18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="8" t="n"/>
-      <c r="I19" s="7" t="n"/>
-      <c r="J19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+      <c r="H19" s="10" t="n"/>
+      <c r="I19" s="9" t="n"/>
+      <c r="J19" s="11" t="n"/>
       <c r="K19" s="5" t="n"/>
       <c r="L19" s="5" t="n"/>
       <c r="M19" s="5" t="n"/>

--- a/out.xlsx
+++ b/out.xlsx
@@ -97,7 +97,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -376,7 +376,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1131,6 +1131,7 @@
     <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 

--- a/out.xlsx
+++ b/out.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5820" yWindow="1080"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="5592" yWindow="1332"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -76,28 +76,22 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -373,19 +367,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:BU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="13" width="10"/>
-    <col customWidth="1" max="9" min="9" style="13" width="8.88671875"/>
-    <col customWidth="1" max="10" min="10" style="13" width="8.88671875"/>
-    <col customWidth="1" max="11" min="11" style="13" width="9"/>
-    <col customWidth="1" max="12" min="12" style="13" width="9"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="12" width="10"/>
+    <col customWidth="1" max="9" min="9" style="12" width="9"/>
+    <col customWidth="1" max="11" min="10" style="12" width="8.88671875"/>
+    <col customWidth="1" max="12" min="12" style="12" width="9"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -404,76 +397,108 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>Номер</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>Область</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D4" s="11" t="inlineStr">
         <is>
           <t>Насел. Пункт</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E4" s="11" t="inlineStr">
         <is>
           <t>Договора</t>
         </is>
       </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Код ЕДРПОУ</t>
         </is>
       </c>
-      <c r="H4" s="12" t="inlineStr">
+      <c r="H4" s="11" t="inlineStr">
         <is>
           <t>виконання</t>
         </is>
       </c>
-      <c r="I4" s="12" t="n"/>
-      <c r="J4" s="12" t="n"/>
     </row>
     <row r="5">
-      <c r="I5" s="12" t="n"/>
-      <c r="J5" s="12" t="n"/>
-      <c r="K5" s="12" t="inlineStr">
-        <is>
-          <t>План</t>
+      <c r="J5" s="11" t="inlineStr">
+        <is>
+          <t>План поточний</t>
+        </is>
+      </c>
+      <c r="M5" s="11" t="inlineStr">
+        <is>
+          <t>Лимиты поточные</t>
+        </is>
+      </c>
+      <c r="P5" s="11" t="inlineStr">
+        <is>
+          <t>лимиты предыдущие</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="12" t="inlineStr">
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>Договор</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>Реструктур</t>
         </is>
       </c>
-      <c r="I6" s="12" t="n"/>
-      <c r="J6" s="12" t="n"/>
     </row>
     <row r="7">
-      <c r="I7" s="12" t="n"/>
-      <c r="J7" s="12" t="n"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>По всем</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>ТЕ</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>БО</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>По всем</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>ТЕ</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>БО</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>По всем</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>ТЕ</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>БО</t>
         </is>
@@ -482,42 +507,14 @@
     <row r="8"/>
     <row r="9"/>
     <row r="10">
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>Всего</t>
         </is>
       </c>
-      <c r="I10" s="14">
-        <f>KMN</f>
-        <v/>
-      </c>
-      <c r="J10">
-        <f>MN</f>
-        <v/>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>M:N</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>MN</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>rand</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>rand</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="B11" s="12" t="inlineStr">
+      <c r="B11" s="11" t="inlineStr">
         <is>
           <t>Винницкая</t>
         </is>
@@ -558,29 +555,43 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12">
-        <f>L12+N12+O12</f>
-        <v/>
-      </c>
-      <c r="J12">
-        <f>N12+O12</f>
-        <v/>
-      </c>
-      <c r="L12">
-        <f>SUM(N12:O12)</f>
-        <v/>
-      </c>
-      <c r="M12">
-        <f>N12+O12</f>
-        <v/>
-      </c>
-      <c r="N12">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O12">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>600</v>
+      </c>
+      <c r="K12" t="n">
+        <v>300</v>
+      </c>
+      <c r="L12" t="n">
+        <v>300</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>договир э</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>-580</v>
       </c>
     </row>
     <row r="13">
@@ -618,29 +629,43 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13">
-        <f>L13+N13+O13</f>
-        <v/>
-      </c>
-      <c r="J13">
-        <f>N13+O13</f>
-        <v/>
-      </c>
-      <c r="L13">
-        <f>SUM(N13:O13)</f>
-        <v/>
-      </c>
-      <c r="M13">
-        <f>N13+O13</f>
-        <v/>
-      </c>
-      <c r="N13">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O13">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>606</v>
+      </c>
+      <c r="K13" t="n">
+        <v>303</v>
+      </c>
+      <c r="L13" t="n">
+        <v>303</v>
+      </c>
+      <c r="M13" t="n">
+        <v>22</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>11</v>
+      </c>
+      <c r="P13" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>11</v>
+      </c>
+      <c r="R13" t="n">
+        <v>11</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>договир э</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>-584</v>
       </c>
     </row>
     <row r="14">
@@ -676,29 +701,43 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14">
-        <f>L14+N14+O14</f>
-        <v/>
-      </c>
-      <c r="J14">
-        <f>N14+O14</f>
-        <v/>
-      </c>
-      <c r="L14">
-        <f>SUM(N14:O14)</f>
-        <v/>
-      </c>
-      <c r="M14">
-        <f>N14+O14</f>
-        <v/>
-      </c>
-      <c r="N14">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O14">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>612</v>
+      </c>
+      <c r="K14" t="n">
+        <v>306</v>
+      </c>
+      <c r="L14" t="n">
+        <v>306</v>
+      </c>
+      <c r="M14" t="n">
+        <v>24</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>договир э</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>-588</v>
       </c>
     </row>
     <row r="15">
@@ -731,29 +770,38 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15">
-        <f>L15+N15+O15</f>
-        <v/>
-      </c>
-      <c r="J15">
-        <f>N15+O15</f>
-        <v/>
-      </c>
-      <c r="L15">
-        <f>SUM(N15:O15)</f>
-        <v/>
-      </c>
-      <c r="M15">
-        <f>N15+O15</f>
-        <v/>
-      </c>
-      <c r="N15">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O15">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>618</v>
+      </c>
+      <c r="K15" t="n">
+        <v>309</v>
+      </c>
+      <c r="L15" t="n">
+        <v>309</v>
+      </c>
+      <c r="M15" t="n">
+        <v>26</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="n">
+        <v>13</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-592</v>
       </c>
     </row>
     <row r="16">
@@ -781,29 +829,38 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16">
-        <f>L16+N16+O16</f>
-        <v/>
-      </c>
-      <c r="J16">
-        <f>N16+O16</f>
-        <v/>
-      </c>
-      <c r="L16">
-        <f>SUM(N16:O16)</f>
-        <v/>
-      </c>
-      <c r="M16">
-        <f>N16+O16</f>
-        <v/>
-      </c>
-      <c r="N16">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O16">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>624</v>
+      </c>
+      <c r="K16" t="n">
+        <v>312</v>
+      </c>
+      <c r="L16" t="n">
+        <v>312</v>
+      </c>
+      <c r="M16" t="n">
+        <v>28</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14</v>
+      </c>
+      <c r="O16" t="n">
+        <v>14</v>
+      </c>
+      <c r="P16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>14</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-596</v>
       </c>
     </row>
     <row r="17">
@@ -836,29 +893,37 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17">
-        <f>L17+N17+O17</f>
-        <v/>
-      </c>
-      <c r="J17">
-        <f>N17+O17</f>
-        <v/>
-      </c>
-      <c r="L17">
-        <f>SUM(N17:O17)</f>
-        <v/>
-      </c>
-      <c r="M17">
-        <f>N17+O17</f>
-        <v/>
-      </c>
-      <c r="N17">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O17">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>план э</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>30</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -891,29 +956,37 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18">
-        <f>L18+N18+O18</f>
-        <v/>
-      </c>
-      <c r="J18">
-        <f>N18+O18</f>
-        <v/>
-      </c>
-      <c r="L18">
-        <f>SUM(N18:O18)</f>
-        <v/>
-      </c>
-      <c r="M18">
-        <f>N18+O18</f>
-        <v/>
-      </c>
-      <c r="N18">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O18">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>план э</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>32</v>
+      </c>
+      <c r="N18" t="n">
+        <v>16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>16</v>
+      </c>
+      <c r="P18" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>16</v>
+      </c>
+      <c r="R18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -941,29 +1014,37 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19">
-        <f>L19+N19+O19</f>
-        <v/>
-      </c>
-      <c r="J19">
-        <f>N19+O19</f>
-        <v/>
-      </c>
-      <c r="L19">
-        <f>SUM(N19:O19)</f>
-        <v/>
-      </c>
-      <c r="M19">
-        <f>N19+O19</f>
-        <v/>
-      </c>
-      <c r="N19">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O19">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>план э</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>34</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>17</v>
+      </c>
+      <c r="R19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -991,29 +1072,38 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20">
-        <f>L20+N20+O20</f>
-        <v/>
-      </c>
-      <c r="J20">
-        <f>N20+O20</f>
-        <v/>
-      </c>
-      <c r="L20">
-        <f>SUM(N20:O20)</f>
-        <v/>
-      </c>
-      <c r="M20">
-        <f>N20+O20</f>
-        <v/>
-      </c>
-      <c r="N20">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O20">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>648</v>
+      </c>
+      <c r="K20" t="n">
+        <v>324</v>
+      </c>
+      <c r="L20" t="n">
+        <v>324</v>
+      </c>
+      <c r="M20" t="n">
+        <v>36</v>
+      </c>
+      <c r="N20" t="n">
+        <v>18</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>18</v>
+      </c>
+      <c r="R20" t="n">
+        <v>18</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-612</v>
       </c>
     </row>
     <row r="21">
@@ -1035,35 +1125,54 @@
           <t>Винница</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>287/6/4112-РЗ</t>
+        </is>
+      </c>
       <c r="G21" t="n">
         <v>12336594</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f>L21+N21+O21</f>
-        <v/>
-      </c>
-      <c r="J21">
-        <f>N21+O21</f>
-        <v/>
-      </c>
-      <c r="L21">
-        <f>SUM(N21:O21)</f>
-        <v/>
-      </c>
-      <c r="M21">
-        <f>N21+O21</f>
-        <v/>
-      </c>
-      <c r="N21">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O21">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>654</v>
+      </c>
+      <c r="K21" t="n">
+        <v>327</v>
+      </c>
+      <c r="L21" t="n">
+        <v>327</v>
+      </c>
+      <c r="M21" t="n">
+        <v>38</v>
+      </c>
+      <c r="N21" t="n">
+        <v>19</v>
+      </c>
+      <c r="O21" t="n">
+        <v>19</v>
+      </c>
+      <c r="P21" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>19</v>
+      </c>
+      <c r="R21" t="n">
+        <v>19</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>договир э</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>-616</v>
       </c>
     </row>
     <row r="22">
@@ -1091,37 +1200,39 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22">
-        <f>L22+N22+O22</f>
-        <v/>
-      </c>
-      <c r="J22">
-        <f>N22+O22</f>
-        <v/>
-      </c>
-      <c r="L22">
-        <f>SUM(N22:O22)</f>
-        <v/>
-      </c>
-      <c r="M22">
-        <f>N22+O22</f>
-        <v/>
-      </c>
-      <c r="N22">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
-      </c>
-      <c r="O22">
-        <f>RANDBETWEEN(1, 100)</f>
-        <v/>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>660</v>
+      </c>
+      <c r="K22" t="n">
+        <v>330</v>
+      </c>
+      <c r="L22" t="n">
+        <v>330</v>
+      </c>
+      <c r="M22" t="n">
+        <v>40</v>
+      </c>
+      <c r="N22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O22" t="n">
+        <v>20</v>
+      </c>
+      <c r="P22" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>20</v>
+      </c>
+      <c r="R22" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="K5:N6"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="B10:G10"/>
+  <mergeCells count="13">
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
@@ -1129,6 +1240,12 @@
     <mergeCell ref="E4:F5"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I5:K6"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1150,120 +1267,120 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="6" t="n"/>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="6" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="G7" s="9" t="n"/>
-      <c r="H7" s="9" t="n"/>
-      <c r="I7" s="6" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5" t="n"/>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="9" t="n"/>
-      <c r="I8" s="6" t="n"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="G9" s="9" t="n"/>
-      <c r="H9" s="9" t="n"/>
-      <c r="I9" s="6" t="n"/>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
     </row>
     <row r="10">
-      <c r="G10" s="9" t="n"/>
-      <c r="H10" s="9" t="n"/>
-      <c r="I10" s="6" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
     </row>
     <row r="11">
-      <c r="G11" s="9" t="n"/>
-      <c r="H11" s="9" t="n"/>
-      <c r="I11" s="6" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" s="6" t="n"/>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="4" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="G12" s="9" t="n"/>
-      <c r="H12" s="9" t="n"/>
-      <c r="I12" s="6" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="4" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
     </row>
     <row r="14">
-      <c r="G14" s="9" t="n"/>
-      <c r="H14" s="10" t="n"/>
-      <c r="I14" s="9" t="n"/>
-      <c r="J14" s="11" t="n"/>
-      <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="5" t="n"/>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" s="7" t="n"/>
+      <c r="I14" s="6" t="n"/>
+      <c r="J14" s="8" t="n"/>
+      <c r="K14" s="4" t="n"/>
+      <c r="L14" s="4" t="n"/>
+      <c r="M14" s="4" t="n"/>
     </row>
     <row r="15">
-      <c r="G15" s="9" t="n"/>
-      <c r="H15" s="10" t="n"/>
-      <c r="I15" s="9" t="n"/>
-      <c r="J15" s="11" t="n"/>
-      <c r="K15" s="5" t="n"/>
-      <c r="L15" s="5" t="n"/>
-      <c r="M15" s="5" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" s="7" t="n"/>
+      <c r="I15" s="6" t="n"/>
+      <c r="J15" s="8" t="n"/>
+      <c r="K15" s="4" t="n"/>
+      <c r="L15" s="4" t="n"/>
+      <c r="M15" s="4" t="n"/>
     </row>
     <row r="16">
-      <c r="G16" s="9" t="n"/>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="9" t="n"/>
-      <c r="J16" s="11" t="n"/>
-      <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
-      <c r="M16" s="5" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="7" t="n"/>
+      <c r="I16" s="6" t="n"/>
+      <c r="J16" s="8" t="n"/>
+      <c r="K16" s="4" t="n"/>
+      <c r="L16" s="4" t="n"/>
+      <c r="M16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="G17" s="9" t="n"/>
-      <c r="H17" s="10" t="n"/>
-      <c r="I17" s="9" t="n"/>
-      <c r="J17" s="11" t="n"/>
-      <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
-      <c r="M17" s="5" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="7" t="n"/>
+      <c r="I17" s="6" t="n"/>
+      <c r="J17" s="8" t="n"/>
+      <c r="K17" s="4" t="n"/>
+      <c r="L17" s="4" t="n"/>
+      <c r="M17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="G18" s="9" t="n"/>
-      <c r="H18" s="10" t="n"/>
-      <c r="I18" s="9" t="n"/>
-      <c r="J18" s="11" t="n"/>
-      <c r="K18" s="5" t="n"/>
-      <c r="L18" s="5" t="n"/>
-      <c r="M18" s="5" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="H18" s="7" t="n"/>
+      <c r="I18" s="6" t="n"/>
+      <c r="J18" s="8" t="n"/>
+      <c r="K18" s="4" t="n"/>
+      <c r="L18" s="4" t="n"/>
+      <c r="M18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="G19" s="9" t="n"/>
-      <c r="H19" s="10" t="n"/>
-      <c r="I19" s="9" t="n"/>
-      <c r="J19" s="11" t="n"/>
-      <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="H19" s="7" t="n"/>
+      <c r="I19" s="6" t="n"/>
+      <c r="J19" s="8" t="n"/>
+      <c r="K19" s="4" t="n"/>
+      <c r="L19" s="4" t="n"/>
+      <c r="M19" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
